--- a/excels/times_multiprocesses.xlsx
+++ b/excels/times_multiprocesses.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K578"/>
+  <dimension ref="A1:K713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31057,6 +31057,7161 @@
       <c r="K578" t="inlineStr">
         <is>
           <t>3,745794</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>0,011179</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>0,020909</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>0,009728</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>0,011550</t>
+        </is>
+      </c>
+      <c r="F579" t="n">
+        <v>16</v>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>53,366390</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>0,607988</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>2,740145</t>
+        </is>
+      </c>
+      <c r="J579" t="inlineStr">
+        <is>
+          <t>6,188154</t>
+        </is>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>4,267454</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>0,005339</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>0,023272</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>0,009127</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>0,012199</t>
+        </is>
+      </c>
+      <c r="F580" t="n">
+        <v>16</v>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>49,935765</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>0,570414</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>2,463102</t>
+        </is>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>6,044388</t>
+        </is>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>4,502773</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>0,005669</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>0,022898</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>0,009746</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>0,011327</t>
+        </is>
+      </c>
+      <c r="F581" t="n">
+        <v>16</v>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>49,639011</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>0,609114</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>2,644777</t>
+        </is>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>6,473064</t>
+        </is>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>3,930092</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>0,005419</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>0,023923</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>0,009539</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>0,011497</t>
+        </is>
+      </c>
+      <c r="F582" t="n">
+        <v>16</v>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>50,377644</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>0,596177</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>2,209663</t>
+        </is>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>6,374121</t>
+        </is>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>4,540920</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>0,007863</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>0,026533</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>0,012105</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>0,012088</t>
+        </is>
+      </c>
+      <c r="F583" t="n">
+        <v>16</v>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>58,588851</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>0,756542</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>3,171682</t>
+        </is>
+      </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>6,760836</t>
+        </is>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>4,651308</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>0,007990</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>0,022818</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>0,009438</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>0,011162</t>
+        </is>
+      </c>
+      <c r="F584" t="n">
+        <v>16</v>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>51,407556</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>0,589873</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>4,613638</t>
+        </is>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>7,902145</t>
+        </is>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>3,654003</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>0,005710</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>0,023188</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>0,010057</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>0,011719</t>
+        </is>
+      </c>
+      <c r="F585" t="n">
+        <v>16</v>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>50,674746</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>0,628581</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>2,753496</t>
+        </is>
+      </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>6,348372</t>
+        </is>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>5,424261</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>0,005543</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>0,021276</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>0,010219</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>0,012526</t>
+        </is>
+      </c>
+      <c r="F586" t="n">
+        <v>17</v>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>49,564284</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>0,601110</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>3,544092</t>
+        </is>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>7,887840</t>
+        </is>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>3,588200</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>0,006619</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>0,021581</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>0,010235</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>0,011855</t>
+        </is>
+      </c>
+      <c r="F587" t="n">
+        <v>19</v>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>50,290113</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>0,538696</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>2,276182</t>
+        </is>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>5,739450</t>
+        </is>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>4,940748</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>0,005743</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>0,023306</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>0,011026</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>0,012385</t>
+        </is>
+      </c>
+      <c r="F588" t="n">
+        <v>15</v>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>52,460441</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>0,735047</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>2,910137</t>
+        </is>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>6,506443</t>
+        </is>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>3,798962</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>0,005965</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>0,021031</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>0,011841</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>0,011760</t>
+        </is>
+      </c>
+      <c r="F589" t="n">
+        <v>18</v>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>50,596177</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>0,657832</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>2,586126</t>
+        </is>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>6,422997</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>3,931284</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>0,005427</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>0,020913</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>0,010308</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>0,009860</t>
+        </is>
+      </c>
+      <c r="F590" t="n">
+        <v>18</v>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>46,507214</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>0,572641</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>3,428221</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>6,588221</t>
+        </is>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>3,673315</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>0,006506</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>0,021151</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>0,011710</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>0,012739</t>
+        </is>
+      </c>
+      <c r="F591" t="n">
+        <v>18</v>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>52,106466</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>0,650569</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>2,857685</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>7,198572</t>
+        </is>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>3,640890</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>0,007254</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>0,024070</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>0,013005</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>0,012528</t>
+        </is>
+      </c>
+      <c r="F592" t="n">
+        <v>18</v>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>56,857673</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>0,722525</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>4,187584</t>
+        </is>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>7,656574</t>
+        </is>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>3,884315</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>0,005592</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>0,027577</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>0,011246</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>0,014388</t>
+        </is>
+      </c>
+      <c r="F593" t="n">
+        <v>19</v>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>58,803187</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>0,591881</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>3,427267</t>
+        </is>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>7,390738</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>3,789186</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>0,005390</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>0,022555</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>0,011470</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>0,016199</t>
+        </is>
+      </c>
+      <c r="F594" t="n">
+        <v>18</v>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>55,614561</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>0,637240</t>
+        </is>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>3,358603</t>
+        </is>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>8,665800</t>
+        </is>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>3,822088</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>0,005405</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>0,023879</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>0,013303</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>0,012890</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>17</v>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>55,478042</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>0,782545</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>2,702713</t>
+        </is>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>7,349014</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>3,939152</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>0,008661</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>0,020446</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>0,009485</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>0,012187</t>
+        </is>
+      </c>
+      <c r="F596" t="n">
+        <v>16</v>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>50,778389</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>0,592823</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>2,632618</t>
+        </is>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>7,158041</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>4,018307</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>0,005405</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>0,020690</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>0,009630</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>0,017026</t>
+        </is>
+      </c>
+      <c r="F597" t="n">
+        <v>17</v>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>52,750911</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>0,566478</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>2,751589</t>
+        </is>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>6,094933</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>4,761934</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>0,008777</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>0,021213</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>0,009174</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>0,013751</t>
+        </is>
+      </c>
+      <c r="F598" t="n">
+        <v>16</v>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>52,915241</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>0,573392</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>2,629042</t>
+        </is>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>7,558584</t>
+        </is>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>3,685236</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>0,005398</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>0,023343</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>0,008627</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>0,012448</t>
+        </is>
+      </c>
+      <c r="F599" t="n">
+        <v>15</v>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>49,815582</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>0,575129</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>3,150225</t>
+        </is>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>8,717537</t>
+        </is>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>3,856897</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>0,005453</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>0,021044</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>0,009903</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>0,011888</t>
+        </is>
+      </c>
+      <c r="F600" t="n">
+        <v>15</v>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>48,288265</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>0,660194</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>3,618240</t>
+        </is>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>8,939266</t>
+        </is>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>3,677368</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>0,005422</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>0,027264</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>0,009485</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>0,010985</t>
+        </is>
+      </c>
+      <c r="F601" t="n">
+        <v>16</v>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>53,155861</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>0,592815</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>3,659487</t>
+        </is>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>7,039785</t>
+        </is>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>4,259586</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>0,008988</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>0,022625</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>0,011556</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>0,009533</t>
+        </is>
+      </c>
+      <c r="F602" t="n">
+        <v>17</v>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>52,701627</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>0,679738</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>3,221035</t>
+        </is>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>7,019520</t>
+        </is>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>3,608704</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>0,006097</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>0,026940</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>0,010701</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>0,012064</t>
+        </is>
+      </c>
+      <c r="F603" t="n">
+        <v>17</v>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>55,801476</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>0,629490</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>2,224207</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>8,427143</t>
+        </is>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>3,626585</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>0,005435</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>0,025377</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>0,009161</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>0,010963</t>
+        </is>
+      </c>
+      <c r="F604" t="n">
+        <v>17</v>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>50,935351</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>0,538904</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>2,629280</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>8,718252</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>3,810406</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>0,005475</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>0,026196</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>0,008745</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>0,010877</t>
+        </is>
+      </c>
+      <c r="F605" t="n">
+        <v>16</v>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>51,292553</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>0,546536</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>3,118753</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>8,023262</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>3,532887</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>0,005446</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>0,023497</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>0,010117</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>0,012912</t>
+        </is>
+      </c>
+      <c r="F606" t="n">
+        <v>16</v>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>51,972270</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>0,632333</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>2,185345</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>6,144047</t>
+        </is>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>5,091190</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>0,005554</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>0,020402</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>0,009068</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>0,010534</t>
+        </is>
+      </c>
+      <c r="F607" t="n">
+        <v>15</v>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>45,557421</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>0,604539</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>4,709244</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>7,946014</t>
+        </is>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>3,671408</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>0,005338</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>0,027585</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>0,009670</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>0,010735</t>
+        </is>
+      </c>
+      <c r="F608" t="n">
+        <v>16</v>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>53,327670</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>0,604345</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>3,809929</t>
+        </is>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>8,445263</t>
+        </is>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>5,298376</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>0,005289</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>0,027410</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>0,010701</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>0,012171</t>
+        </is>
+      </c>
+      <c r="F609" t="n">
+        <v>17</v>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>55,571057</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>0,629465</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>4,309654</t>
+        </is>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>7,455111</t>
+        </is>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>4,083157</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>0,006149</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>0,023083</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>0,008602</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>0,010887</t>
+        </is>
+      </c>
+      <c r="F610" t="n">
+        <v>16</v>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>48,720919</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>0,537612</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>7,244587</t>
+        </is>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>6,658554</t>
+        </is>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>3,744364</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>0,007185</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>0,020227</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>0,008489</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>0,014636</t>
+        </is>
+      </c>
+      <c r="F611" t="n">
+        <v>15</v>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>50,537561</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>0,565919</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>2,383471</t>
+        </is>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>7,116079</t>
+        </is>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>3,901720</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>0,005345</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>0,020588</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>0,010499</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>0,011808</t>
+        </is>
+      </c>
+      <c r="F612" t="n">
+        <v>16</v>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>48,240315</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>0,656184</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>2,744675</t>
+        </is>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>5,920410</t>
+        </is>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>3,534317</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>0,005388</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>0,024705</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>0,009735</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>0,011114</t>
+        </is>
+      </c>
+      <c r="F613" t="n">
+        <v>15</v>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>50,941966</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>0,648987</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>3,145456</t>
+        </is>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>8,531094</t>
+        </is>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>3,807783</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>0,006766</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>0,025120</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>0,009496</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>0,009294</t>
+        </is>
+      </c>
+      <c r="F614" t="n">
+        <v>16</v>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>50,675873</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>0,593479</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>2,639771</t>
+        </is>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>8,438587</t>
+        </is>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>4,103184</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>0,007253</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>0,020864</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>0,008430</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>0,011831</t>
+        </is>
+      </c>
+      <c r="F615" t="n">
+        <v>15</v>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>48,377280</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>0,561989</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>2,503157</t>
+        </is>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>7,930756</t>
+        </is>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>3,659248</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>0,009313</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>0,025965</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>0,009573</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>0,010689</t>
+        </is>
+      </c>
+      <c r="F616" t="n">
+        <v>16</v>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>55,539178</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>0,598287</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>2,385855</t>
+        </is>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>6,149530</t>
+        </is>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>6,166697</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>0,005259</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>0,026251</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>0,009661</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>0,017210</t>
+        </is>
+      </c>
+      <c r="F617" t="n">
+        <v>16</v>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>58,380609</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>0,603789</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>3,627539</t>
+        </is>
+      </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>8,922815</t>
+        </is>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>3,924131</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>0,005420</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>0,027404</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>0,011979</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>0,012290</t>
+        </is>
+      </c>
+      <c r="F618" t="n">
+        <v>16</v>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>57,093851</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>0,748691</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>2,878666</t>
+        </is>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>8,832932</t>
+        </is>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>3,849268</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>0,007956</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>0,028257</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>0,008703</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>0,010709</t>
+        </is>
+      </c>
+      <c r="F619" t="n">
+        <v>16</v>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>55,625418</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>0,543968</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>4,035234</t>
+        </is>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>7,292509</t>
+        </is>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>3,871679</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>0,005611</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>0,023403</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>0,008868</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>0,010720</t>
+        </is>
+      </c>
+      <c r="F620" t="n">
+        <v>16</v>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>48,602281</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>0,554266</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>2,625465</t>
+        </is>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>7,372379</t>
+        </is>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>4,089117</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>0,005319</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>0,019608</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>0,009730</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>0,011753</t>
+        </is>
+      </c>
+      <c r="F621" t="n">
+        <v>16</v>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>46,409391</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>0,608119</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>3,004551</t>
+        </is>
+      </c>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>7,512569</t>
+        </is>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>4,319906</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>0,005307</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>0,027320</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>0,008539</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>0,010872</t>
+        </is>
+      </c>
+      <c r="F622" t="n">
+        <v>15</v>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>52,037282</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>0,569239</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>2,701759</t>
+        </is>
+      </c>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>6,594896</t>
+        </is>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>4,462242</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>0,007671</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>0,024752</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>0,009076</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>0,010631</t>
+        </is>
+      </c>
+      <c r="F623" t="n">
+        <v>15</v>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>52,129735</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>0,605070</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>2,801657</t>
+        </is>
+      </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>7,268667</t>
+        </is>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>3,815413</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>0,006080</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>0,020285</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>0,008657</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>0,011736</t>
+        </is>
+      </c>
+      <c r="F624" t="n">
+        <v>16</v>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>46,758047</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>0,541064</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>2,383471</t>
+        </is>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>9,123087</t>
+        </is>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>3,696203</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>0,005876</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>0,021158</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>0,008945</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>0,011038</t>
+        </is>
+      </c>
+      <c r="F625" t="n">
+        <v>16</v>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>47,015980</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>0,559041</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>3,891706</t>
+        </is>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>6,955862</t>
+        </is>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>3,783703</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>0,006047</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>0,033887</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>0,009183</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>0,008944</t>
+        </is>
+      </c>
+      <c r="F626" t="n">
+        <v>16</v>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>58,060971</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>0,573955</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>3,067970</t>
+        </is>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>6,957531</t>
+        </is>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>3,809452</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>0,005324</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>0,024881</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>0,008511</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>0,012160</t>
+        </is>
+      </c>
+      <c r="F627" t="n">
+        <v>17</v>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>50,875583</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>0,500643</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>4,104376</t>
+        </is>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>7,738113</t>
+        </is>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>3,782272</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>0,005731</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>0,025166</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>0,009685</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>0,011384</t>
+        </is>
+      </c>
+      <c r="F628" t="n">
+        <v>17</v>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>51,965689</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>0,569729</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>3,855228</t>
+        </is>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>7,148981</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>3,814697</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>0,006843</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>0,023180</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>0,008366</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>0,012059</t>
+        </is>
+      </c>
+      <c r="F629" t="n">
+        <v>17</v>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>50,448260</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>0,492127</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>2,419949</t>
+        </is>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>5,882502</t>
+        </is>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>6,344557</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>0,005344</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>0,027047</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>0,008541</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>0,011517</t>
+        </is>
+      </c>
+      <c r="F630" t="n">
+        <v>17</v>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>52,449681</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>0,502412</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>2,682209</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>7,539034</t>
+        </is>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>3,858089</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>0,006783</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>0,024134</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>0,009631</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>0,010734</t>
+        </is>
+      </c>
+      <c r="F631" t="n">
+        <v>15</v>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>51,282098</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>0,642094</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>2,429962</t>
+        </is>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>6,292343</t>
+        </is>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>3,660202</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>0,005323</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>0,020703</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>0,010539</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>0,012346</t>
+        </is>
+      </c>
+      <c r="F632" t="n">
+        <v>17</v>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>48,911182</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>0,619962</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>2,711773</t>
+        </is>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>8,247375</t>
+        </is>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>3,627777</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>0,005450</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>0,026241</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>0,009796</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>0,011412</t>
+        </is>
+      </c>
+      <c r="F633" t="n">
+        <v>18</v>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>52,899399</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>0,544206</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>3,167629</t>
+        </is>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>8,126736</t>
+        </is>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>3,862381</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>0,006783</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>0,022077</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>0,011025</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>0,011621</t>
+        </is>
+      </c>
+      <c r="F634" t="n">
+        <v>17</v>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>51,505819</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>0,648559</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>2,794981</t>
+        </is>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>8,476973</t>
+        </is>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>3,869534</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>0,005527</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>0,024830</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>0,011754</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>0,010825</t>
+        </is>
+      </c>
+      <c r="F635" t="n">
+        <v>17</v>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>52,936391</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>0,691390</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>2,821445</t>
+        </is>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>7,854939</t>
+        </is>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>4,013777</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>0,006743</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>0,024088</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>0,012794</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>0,011198</t>
+        </is>
+      </c>
+      <c r="F636" t="n">
+        <v>19</v>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>54,823115</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>0,673357</t>
+        </is>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>5,776405</t>
+        </is>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>5,860806</t>
+        </is>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>6,095886</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>0,006220</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>0,023708</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>0,012258</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>0,012353</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>19</v>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>54,539005</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>0,645143</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>3,127813</t>
+        </is>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>7,962704</t>
+        </is>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>3,965616</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>0,005351</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>0,021176</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>0,010421</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>0,010189</t>
+        </is>
+      </c>
+      <c r="F638" t="n">
+        <v>18</v>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>47,137064</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>0,578959</t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>2,521038</t>
+        </is>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>7,490396</t>
+        </is>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>5,047560</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>0,005354</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>0,020234</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>0,009924</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>0,011584</t>
+        </is>
+      </c>
+      <c r="F639" t="n">
+        <v>18</v>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>47,095877</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>0,551338</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>5,227804</t>
+        </is>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>6,300449</t>
+        </is>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>3,629684</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>0,005408</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>0,020200</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>0,010376</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>0,012436</t>
+        </is>
+      </c>
+      <c r="F640" t="n">
+        <v>19</v>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>48,421133</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>0,546101</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>3,078461</t>
+        </is>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>7,196426</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>3,686905</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>0,005411</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>0,026312</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>0,010614</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>0,012945</t>
+        </is>
+      </c>
+      <c r="F641" t="n">
+        <v>19</v>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>55,281730</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>0,558624</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>2,768517</t>
+        </is>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>7,338285</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>4,958153</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>0,005637</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>0,026741</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>0,009975</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>0,012109</t>
+        </is>
+      </c>
+      <c r="F642" t="n">
+        <v>18</v>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>54,463028</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>0,554187</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>2,447605</t>
+        </is>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>6,452799</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>5,557775</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>0,007350</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>0,026488</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>0,010113</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>0,010901</t>
+        </is>
+      </c>
+      <c r="F643" t="n">
+        <v>18</v>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>54,852745</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>0,561812</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>2,673388</t>
+        </is>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>7,945538</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>4,146338</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>0,007664</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>0,028046</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>0,010212</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>0,011358</t>
+        </is>
+      </c>
+      <c r="F644" t="n">
+        <v>18</v>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>57,279372</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>0,567309</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>2,835989</t>
+        </is>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>7,511139</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>3,726959</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>0,005343</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>0,026743</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>0,010214</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>0,012035</t>
+        </is>
+      </c>
+      <c r="F645" t="n">
+        <v>18</v>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>54,335178</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>0,567435</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>3,560543</t>
+        </is>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>9,132862</t>
+        </is>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>3,853321</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>0,005440</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>0,025499</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>0,011353</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>0,012364</t>
+        </is>
+      </c>
+      <c r="F646" t="n">
+        <v>18</v>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>54,656058</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>0,630731</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>2,738714</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>10,347366</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>5,472422</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>0,005510</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>0,021796</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>0,010244</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>0,010853</t>
+        </is>
+      </c>
+      <c r="F647" t="n">
+        <v>17</v>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>48,403239</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>0,602574</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>2,625942</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>9,331703</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>3,683090</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>0,005484</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>0,025572</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>0,009772</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>0,012110</t>
+        </is>
+      </c>
+      <c r="F648" t="n">
+        <v>17</v>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>52,938265</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>0,574794</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>3,603697</t>
+        </is>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>9,189844</t>
+        </is>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>4,069567</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>0,005378</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>0,020818</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>0,014737</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>0,011009</t>
+        </is>
+      </c>
+      <c r="F649" t="n">
+        <v>17</v>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>51,941604</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>0,866884</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>4,595041</t>
+        </is>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>7,922411</t>
+        </is>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>5,856037</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>0,005667</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>0,021250</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>0,009956</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>0,010419</t>
+        </is>
+      </c>
+      <c r="F650" t="n">
+        <v>16</v>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>47,292198</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>0,622274</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>2,326965</t>
+        </is>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>6,731033</t>
+        </is>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>4,091501</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>0,005438</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>0,021847</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>0,009911</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>0,011109</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>16</v>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>48,304988</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>0,619432</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>4,537344</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>6,959200</t>
+        </is>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>4,568577</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>0,006075</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>0,021123</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>0,010195</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>0,010920</t>
+        </is>
+      </c>
+      <c r="F652" t="n">
+        <v>15</v>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>48,313180</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>0,679698</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>8,753777</t>
+        </is>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>6,095409</t>
+        </is>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>3,593206</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>0,006517</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>0,021051</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>0,009729</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>0,011664</t>
+        </is>
+      </c>
+      <c r="F653" t="n">
+        <v>16</v>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>48,961725</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>0,608053</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>3,026724</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>9,457588</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>4,658222</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>0,005827</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>0,025800</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>0,010516</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>0,010721</t>
+        </is>
+      </c>
+      <c r="F654" t="n">
+        <v>16</v>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>52,865199</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>0,657278</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>4,174471</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>6,546497</t>
+        </is>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>5,732059</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>0,006468</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>0,027642</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>0,015493</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>0,011794</t>
+        </is>
+      </c>
+      <c r="F655" t="n">
+        <v>17</v>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>61,396573</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>0,911334</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>3,196001</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>7,345200</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>3,964663</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>0,006805</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>0,022106</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>0,011496</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>0,011427</t>
+        </is>
+      </c>
+      <c r="F656" t="n">
+        <v>17</v>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>51,833814</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>0,676262</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>3,942013</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>8,679152</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>4,786730</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>0,005333</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>0,031816</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>0,012058</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>0,010743</t>
+        </is>
+      </c>
+      <c r="F657" t="n">
+        <v>18</v>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>59,948751</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>0,669871</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>4,027367</t>
+        </is>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>6,599426</t>
+        </is>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>4,001379</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>0,005651</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>0,032728</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>0,010760</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>0,010449</t>
+        </is>
+      </c>
+      <c r="F658" t="n">
+        <v>17</v>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>59,587896</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>0,632970</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>3,748178</t>
+        </is>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>7,869005</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>4,955530</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>0,005286</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>0,019731</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>0,011960</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>0,010128</t>
+        </is>
+      </c>
+      <c r="F659" t="n">
+        <v>17</v>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>47,104019</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>0,703526</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>3,833294</t>
+        </is>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>11,128902</t>
+        </is>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>4,604578</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>0,006244</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>0,027117</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>0,017219</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>0,010294</t>
+        </is>
+      </c>
+      <c r="F660" t="n">
+        <v>18</v>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>60,873819</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>0,956592</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>4,404545</t>
+        </is>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>7,869959</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>3,902674</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>0,005389</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>0,026684</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>0,011500</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>0,012206</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>18</v>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>55,779686</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>0,638898</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>6,716490</t>
+        </is>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>11,272192</t>
+        </is>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>4,351377</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>0,005673</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>0,028177</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>0,013769</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>0,009041</t>
+        </is>
+      </c>
+      <c r="F662" t="n">
+        <v>18</v>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>56,659607</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>0,764928</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>3,267288</t>
+        </is>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>6,478548</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>6,763935</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>0,005523</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>0,026197</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>0,013224</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>0,010672</t>
+        </is>
+      </c>
+      <c r="F663" t="n">
+        <v>18</v>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>55,616477</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>0,734694</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>4,211426</t>
+        </is>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>7,799625</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>7,936954</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>0,007990</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>0,025654</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>0,016018</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>0,011075</t>
+        </is>
+      </c>
+      <c r="F664" t="n">
+        <v>16</v>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>60,736304</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>1,001106</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>3,012896</t>
+        </is>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>8,114338</t>
+        </is>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>6,911516</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>0,005590</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>0,027186</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>0,011365</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>0,010814</t>
+        </is>
+      </c>
+      <c r="F665" t="n">
+        <v>17</v>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>54,954550</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>0,668510</t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>2,827406</t>
+        </is>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>9,455204</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>3,606796</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>0,007342</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>0,023821</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>0,009378</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>0,010598</t>
+        </is>
+      </c>
+      <c r="F666" t="n">
+        <v>15</v>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>51,139561</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>0,625186</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>3,868580</t>
+        </is>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>6,297350</t>
+        </is>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>4,247665</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>0,005322</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>0,027360</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>0,011919</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>0,010251</t>
+        </is>
+      </c>
+      <c r="F667" t="n">
+        <v>15</v>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>54,851792</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>0,794631</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>8,423567</t>
+        </is>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>7,789850</t>
+        </is>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>4,671574</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>0,006802</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>0,032340</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>0,011429</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>0,011115</t>
+        </is>
+      </c>
+      <c r="F668" t="n">
+        <v>16</v>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>61,685375</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>0,714290</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>4,318714</t>
+        </is>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>8,248568</t>
+        </is>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>4,363775</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>0,005394</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>0,028632</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>0,010591</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>0,011560</t>
+        </is>
+      </c>
+      <c r="F669" t="n">
+        <v>17</v>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>56,176597</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>0,623026</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>3,469944</t>
+        </is>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>8,993626</t>
+        </is>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>6,380558</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>0,005768</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>0,036828</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>0,009846</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>0,010582</t>
+        </is>
+      </c>
+      <c r="F670" t="n">
+        <v>17</v>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>63,023847</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>0,579197</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>4,356623</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>7,051468</t>
+        </is>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>3,956556</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>0,005469</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>0,031334</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>0,009862</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>0,010959</t>
+        </is>
+      </c>
+      <c r="F671" t="n">
+        <v>16</v>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>57,623840</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>0,616395</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>3,182411</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>6,638527</t>
+        </is>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>3,555059</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>0,008398</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>0,029420</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>0,011974</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>0,011020</t>
+        </is>
+      </c>
+      <c r="F672" t="n">
+        <v>16</v>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>60,811499</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>0,748356</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>2,929211</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>8,987665</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>4,017591</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>0,006172</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>0,032661</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>0,010058</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>0,010760</t>
+        </is>
+      </c>
+      <c r="F673" t="n">
+        <v>16</v>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>59,651566</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>0,628618</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>2,281904</t>
+        </is>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>5,928516</t>
+        </is>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>5,118132</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>0,005740</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>0,028970</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>0,010290</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>0,009834</t>
+        </is>
+      </c>
+      <c r="F674" t="n">
+        <v>16</v>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>54,834183</t>
+        </is>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>0,643135</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>2,424240</t>
+        </is>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>9,270668</t>
+        </is>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>4,142284</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>0,005492</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>0,022507</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>0,011166</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>0,011049</t>
+        </is>
+      </c>
+      <c r="F675" t="n">
+        <v>17</v>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>50,213293</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>0,656815</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>2,221584</t>
+        </is>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>6,072521</t>
+        </is>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>6,606102</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>0,005505</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>0,028011</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>0,009382</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>0,011244</t>
+        </is>
+      </c>
+      <c r="F676" t="n">
+        <v>17</v>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>54,140927</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>0,551892</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>2,614498</t>
+        </is>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>9,414911</t>
+        </is>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>3,803253</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>0,012522</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>0,026087</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>0,009393</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>0,011210</t>
+        </is>
+      </c>
+      <c r="F677" t="n">
+        <v>17</v>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>59,212466</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>0,552540</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>8,185148</t>
+        </is>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>6,505013</t>
+        </is>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>3,725529</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>0,009204</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>0,029227</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>0,009033</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>0,011745</t>
+        </is>
+      </c>
+      <c r="F678" t="n">
+        <v>17</v>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>59,209489</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>0,531336</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>2,105713</t>
+        </is>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>7,427692</t>
+        </is>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>4,571915</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>0,006832</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>0,023480</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>0,009272</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>0,010504</t>
+        </is>
+      </c>
+      <c r="F679" t="n">
+        <v>17</v>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>50,087045</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>0,545392</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>3,265142</t>
+        </is>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>7,225752</t>
+        </is>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>4,594564</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>0,008034</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>0,024791</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>0,009763</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>0,010243</t>
+        </is>
+      </c>
+      <c r="F680" t="n">
+        <v>16</v>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>52,830293</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>0,610189</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>2,502441</t>
+        </is>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>8,703709</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>4,916906</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>0,007251</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>0,025032</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>0,009589</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>0,011269</t>
+        </is>
+      </c>
+      <c r="F681" t="n">
+        <v>16</v>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>53,141191</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>0,599322</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>9,018898</t>
+        </is>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>5,686522</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>4,005909</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>0,009330</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>0,023672</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>0,010527</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>0,010668</t>
+        </is>
+      </c>
+      <c r="F682" t="n">
+        <v>17</v>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>54,196350</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>0,619224</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>2,493858</t>
+        </is>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>5,828381</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>4,159212</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>0,009739</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>0,024796</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>0,010714</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>0,011239</t>
+        </is>
+      </c>
+      <c r="F683" t="n">
+        <v>17</v>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>56,487447</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>0,630214</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>5,255699</t>
+        </is>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>6,482840</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>4,313469</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>0,005692</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>0,022352</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>0,009441</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>0,011177</t>
+        </is>
+      </c>
+      <c r="F684" t="n">
+        <v>16</v>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>48,662930</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>0,590050</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>3,620863</t>
+        </is>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>6,977320</t>
+        </is>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>4,418135</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>0,007573</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>0,025858</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>0,011347</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>0,010185</t>
+        </is>
+      </c>
+      <c r="F685" t="n">
+        <v>17</v>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>54,963907</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>0,667492</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>2,743959</t>
+        </is>
+      </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>6,173849</t>
+        </is>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>4,812241</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>0,005372</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>0,029027</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>0,009833</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>0,008834</t>
+        </is>
+      </c>
+      <c r="F686" t="n">
+        <v>17</v>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>53,064924</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>0,578412</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>4,574299</t>
+        </is>
+      </c>
+      <c r="J686" t="inlineStr">
+        <is>
+          <t>6,726265</t>
+        </is>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>3,943443</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>0,009683</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>0,024158</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>0,010168</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>0,010412</t>
+        </is>
+      </c>
+      <c r="F687" t="n">
+        <v>15</v>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>54,421412</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>0,677897</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>3,417969</t>
+        </is>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>6,716013</t>
+        </is>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>5,010843</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>0,006450</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>0,024010</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>0,010358</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>0,011166</t>
+        </is>
+      </c>
+      <c r="F688" t="n">
+        <v>16</v>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>51,983649</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>0,647379</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>2,552509</t>
+        </is>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>6,391287</t>
+        </is>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>4,210472</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>0,005901</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>0,026357</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>0,009764</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>0,011366</t>
+        </is>
+      </c>
+      <c r="F689" t="n">
+        <v>16</v>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>53,387756</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>0,610257</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>2,595186</t>
+        </is>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>8,139610</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>3,975153</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>0,005338</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>0,025891</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>0,013210</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>0,010648</t>
+        </is>
+      </c>
+      <c r="F690" t="n">
+        <v>16</v>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>55,087651</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>0,825620</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>2,532482</t>
+        </is>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>8,101225</t>
+        </is>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>3,840208</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>0,006189</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>0,022726</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>0,009334</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>0,010887</t>
+        </is>
+      </c>
+      <c r="F691" t="n">
+        <v>15</v>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>49,135590</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>0,622246</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>2,498627</t>
+        </is>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>8,254051</t>
+        </is>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>5,311489</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>0,006762</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>0,023486</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>0,010450</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>0,010036</t>
+        </is>
+      </c>
+      <c r="F692" t="n">
+        <v>15</v>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>50,734074</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>0,696660</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>2,529860</t>
+        </is>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>7,161617</t>
+        </is>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>4,903316</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>0,005309</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>0,024142</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>0,012133</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>0,009957</t>
+        </is>
+      </c>
+      <c r="F693" t="n">
+        <v>14</v>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>51,540868</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>0,866661</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>2,491951</t>
+        </is>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>7,713795</t>
+        </is>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>3,761530</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>0,006563</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>0,026273</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>0,009290</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>0,009844</t>
+        </is>
+      </c>
+      <c r="F694" t="n">
+        <v>13</v>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>51,969979</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>0,714593</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>4,086971</t>
+        </is>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>6,572008</t>
+        </is>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>4,250288</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>0,008591</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>0,024100</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>0,009527</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>0,009340</t>
+        </is>
+      </c>
+      <c r="F695" t="n">
+        <v>13</v>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>51,558309</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>0,732874</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>3,262281</t>
+        </is>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>5,807161</t>
+        </is>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>5,863905</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>0,005434</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>0,023038</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>0,008767</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>0,010043</t>
+        </is>
+      </c>
+      <c r="F696" t="n">
+        <v>13</v>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>47,282175</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>0,674394</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>2,723455</t>
+        </is>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>7,898092</t>
+        </is>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>4,426241</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>0,005545</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>0,019664</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>0,008188</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>0,011143</t>
+        </is>
+      </c>
+      <c r="F697" t="n">
+        <v>13</v>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>44,540232</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>0,629877</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>6,350040</t>
+        </is>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>7,240057</t>
+        </is>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>4,209280</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>0,006507</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>0,021838</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>0,008636</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>0,008897</t>
+        </is>
+      </c>
+      <c r="F698" t="n">
+        <v>12</v>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>45,877394</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>0,719649</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>4,530430</t>
+        </is>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>6,725788</t>
+        </is>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>4,527807</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>0,007250</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>0,023015</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>0,009483</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>0,009424</t>
+        </is>
+      </c>
+      <c r="F699" t="n">
+        <v>13</v>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>49,171266</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>0,729454</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>2,530575</t>
+        </is>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>7,863998</t>
+        </is>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>4,017591</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>0,005941</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>0,028908</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>0,008027</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>0,010204</t>
+        </is>
+      </c>
+      <c r="F700" t="n">
+        <v>12</v>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>53,079439</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>0,668892</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>2,599716</t>
+        </is>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>8,558035</t>
+        </is>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>3,758430</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>0,005361</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>0,023036</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>0,008708</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>0,009603</t>
+        </is>
+      </c>
+      <c r="F701" t="n">
+        <v>13</v>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>46,707227</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>0,669828</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>2,905369</t>
+        </is>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>8,586168</t>
+        </is>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>4,197121</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>0,005796</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>0,022089</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>0,008216</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>0,008913</t>
+        </is>
+      </c>
+      <c r="F702" t="n">
+        <v>11</v>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>45,013023</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>0,746879</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>4,641294</t>
+        </is>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>10,594368</t>
+        </is>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>6,072760</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>0,005848</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>0,024665</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>0,009426</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>0,009524</t>
+        </is>
+      </c>
+      <c r="F703" t="n">
+        <v>12</v>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>49,463309</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>0,785514</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>8,480072</t>
+        </is>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>6,485224</t>
+        </is>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>3,883839</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>0,005315</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>0,025266</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>0,008421</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>0,008642</t>
+        </is>
+      </c>
+      <c r="F704" t="n">
+        <v>12</v>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>47,643882</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>0,701739</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>4,490137</t>
+        </is>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>7,016420</t>
+        </is>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>3,780842</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>0,005444</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>0,022940</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>0,011017</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>0,008858</t>
+        </is>
+      </c>
+      <c r="F705" t="n">
+        <v>11</v>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>48,259306</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>1,001557</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>4,490137</t>
+        </is>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>7,016420</t>
+        </is>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>3,780842</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>0,005720</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>0,035746</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>0,007679</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>0,009136</t>
+        </is>
+      </c>
+      <c r="F706" t="n">
+        <v>12</v>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>58,280929</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>0,639914</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>4,490137</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>7,016420</t>
+        </is>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>3,780842</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>0,005469</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>0,026213</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>0,008588</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>0,009619</t>
+        </is>
+      </c>
+      <c r="F707" t="n">
+        <v>12</v>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>49,888638</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>0,715638</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>4,490137</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>7,016420</t>
+        </is>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>3,780842</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>0,005334</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>0,022257</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>0,007946</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>0,008623</t>
+        </is>
+      </c>
+      <c r="F708" t="n">
+        <v>12</v>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>44,160142</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>0,662152</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>4,490137</t>
+        </is>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>7,016420</t>
+        </is>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>3,780842</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>0,005587</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>0,028827</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>0,011726</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>0,008557</t>
+        </is>
+      </c>
+      <c r="F709" t="n">
+        <v>11</v>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>54,697406</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>1,065997</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>4,490137</t>
+        </is>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>7,016420</t>
+        </is>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>3,780842</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>0,005831</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>0,024231</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>0,007778</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>0,008492</t>
+        </is>
+      </c>
+      <c r="F710" t="n">
+        <v>11</v>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>46,332703</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>0,707133</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>4,490137</t>
+        </is>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>7,016420</t>
+        </is>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>3,780842</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>0,006815</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>0,035023</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>0,006890</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>0,008783</t>
+        </is>
+      </c>
+      <c r="F711" t="n">
+        <v>10</v>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>57,511218</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>0,689019</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>4,490137</t>
+        </is>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>7,016420</t>
+        </is>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>3,780842</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>0,005466</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>0,027286</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>0,007588</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>0,008510</t>
+        </is>
+      </c>
+      <c r="F712" t="n">
+        <v>10</v>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>48,851524</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>0,758834</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>4,490137</t>
+        </is>
+      </c>
+      <c r="J712" t="inlineStr">
+        <is>
+          <t>7,016420</t>
+        </is>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>3,780842</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>0,006345</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>0,025040</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>0,007116</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>0,008300</t>
+        </is>
+      </c>
+      <c r="F713" t="n">
+        <v>9</v>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>46,801686</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>0,790716</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>4,490137</t>
+        </is>
+      </c>
+      <c r="J713" t="inlineStr">
+        <is>
+          <t>7,016420</t>
+        </is>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>3,780842</t>
         </is>
       </c>
     </row>
